--- a/res/actions (report).xlsx
+++ b/res/actions (report).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Result</t>
   </si>
@@ -89,7 +89,7 @@
     <t>By.id: flight-departing</t>
   </si>
   <si>
-    <t>05/01/2016</t>
+    <t>07/01/2016</t>
   </si>
   <si>
     <t>Input Returning date</t>
@@ -98,16 +98,13 @@
     <t>By.id: flight-returning</t>
   </si>
   <si>
-    <t>05/31/2016</t>
+    <t>07/31/2016</t>
   </si>
   <si>
     <t>Click Search Button</t>
   </si>
   <si>
     <t>By.id: search-button</t>
-  </si>
-  <si>
-    <t>Failure</t>
   </si>
   <si>
     <t>Wait for results</t>
@@ -334,16 +331,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -351,16 +348,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -368,13 +365,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
